--- a/MSBA5509-Optimization/ch3/ocana-jackie-ch3-hw.xlsx
+++ b/MSBA5509-Optimization/ch3/ocana-jackie-ch3-hw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jackie/Desktop/my-school-files/MSBA5509-Optimization/ch3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jackie/Desktop/Masters-Business-Analytics-Dominican-University-CA/MSBA5509-Optimization/ch3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67827610-AD79-254A-B1B0-8A8DD60B8EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FD25CA-0653-CF4D-8638-DB3BBB46298F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17000" yWindow="500" windowWidth="16420" windowHeight="17280" activeTab="4" xr2:uid="{895EC9E5-6F03-5647-AEC1-36197A884ED0}"/>
+    <workbookView xWindow="17000" yWindow="500" windowWidth="16420" windowHeight="17280" xr2:uid="{895EC9E5-6F03-5647-AEC1-36197A884ED0}"/>
   </bookViews>
   <sheets>
     <sheet name="7" sheetId="5" r:id="rId1"/>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="102">
   <si>
     <t>machine</t>
   </si>
@@ -496,6 +496,21 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>production quantities of part A, b, c</t>
+  </si>
+  <si>
+    <t>hours limitations</t>
+  </si>
+  <si>
+    <t>20 points</t>
+  </si>
+  <si>
+    <t>a1+a2+a3</t>
+  </si>
+  <si>
+    <t>19 points</t>
   </si>
 </sst>
 </file>
@@ -652,7 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -686,13 +701,12 @@
     <xf numFmtId="166" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1010,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753CC66E-B400-8B41-B223-3CCAF03189CE}">
   <dimension ref="A2:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1027,6 +1041,9 @@
         <v>3</v>
       </c>
       <c r="E2" s="11"/>
+      <c r="F2" s="19" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1041,14 +1058,15 @@
       <c r="D3" s="2">
         <v>30</v>
       </c>
+      <c r="F3" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -1166,6 +1184,16 @@
         <v>11</v>
       </c>
     </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>13</v>
@@ -1207,7 +1235,7 @@
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1243,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF32897-0173-C247-A875-3E80DB24C722}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A62" sqref="A60:XFD62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1259,6 +1287,9 @@
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F1" s="19" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1273,12 +1304,13 @@
       <c r="D2" s="2">
         <v>60</v>
       </c>
+      <c r="F2" s="19"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -1471,10 +1503,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -1652,10 +1684,10 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -1822,7 +1854,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1840,6 +1872,9 @@
       <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="G1" s="19" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1857,13 +1892,14 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
+      <c r="G2" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2066,11 +2102,11 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2250,11 +2286,11 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
       <c r="F45" s="12"/>
     </row>
     <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2394,7 +2430,7 @@
       <c r="B56" s="11"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="18" t="s">
+      <c r="A57" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="11"/>
@@ -2402,6 +2438,11 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2422,7 +2463,7 @@
   <dimension ref="A2:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2440,6 +2481,9 @@
       <c r="D2" t="s">
         <v>68</v>
       </c>
+      <c r="F2" s="19" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2451,6 +2495,7 @@
       <c r="C3">
         <v>1700</v>
       </c>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2536,17 +2581,17 @@
       <c r="A15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="18">
         <v>30</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="18">
         <v>10</v>
       </c>
       <c r="D15">
         <f>SUM(B15:C15)</f>
         <v>40</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="17" t="s">
         <v>71</v>
       </c>
       <c r="F15">
@@ -2557,17 +2602,17 @@
       <c r="A16" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="18">
         <v>10</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="18">
         <v>50</v>
       </c>
       <c r="D16">
         <f>SUM(B16:C16)</f>
         <v>60</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="17" t="s">
         <v>71</v>
       </c>
       <c r="F16">
@@ -2586,10 +2631,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="17" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2604,7 +2649,7 @@
         <f>SUM(B21:C21)</f>
         <v>100</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="17" t="s">
         <v>71</v>
       </c>
       <c r="F20">
@@ -2615,10 +2660,10 @@
       <c r="A21" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="18">
         <v>40</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="18">
         <v>60</v>
       </c>
     </row>
@@ -2626,7 +2671,7 @@
       <c r="B22" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="19">
         <f>SUMPRODUCT(B3:C4,B15:C16)+SUMPRODUCT(B5:C5,B21:C21)</f>
         <v>212000</v>
       </c>
@@ -2672,7 +2717,7 @@
       <c r="A29" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2688,14 +2733,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24881822-84E5-7649-A299-EC3241DAEAD3}">
-  <dimension ref="A3:I23"/>
+  <dimension ref="A2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>80</v>
@@ -2715,6 +2765,7 @@
       <c r="G3" t="s">
         <v>85</v>
       </c>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3066,7 +3117,7 @@
         <v>14</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:G19" si="1">SUM(C13:C18)</f>
+        <f t="shared" ref="C19:F19" si="1">SUM(C13:C18)</f>
         <v>14</v>
       </c>
       <c r="D19">
@@ -3083,22 +3134,22 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="19"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -3121,12 +3172,12 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="19" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I23" s="21">
+      <c r="I23" s="19">
         <f>SUMPRODUCT(B4:B9,G13:G18)</f>
         <v>1419.2</v>
       </c>
